--- a/00_management/チーム06_反復計画書.xlsx
+++ b/00_management/チーム06_反復計画書.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4509845-1EE2-420A-9D10-F62F2183B0E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01E38EFC-184A-415E-984C-2DE5AF92AB10}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="30" windowWidth="20490" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
     <sheet name="サンプル" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="114210"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -437,10 +438,7 @@
       <t>スミ</t>
     </rPh>
     <rPh sb="89" eb="91">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>サクセイ</t>
+      <t>シンキサクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -598,41 +596,73 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>人間プレイヤーがカードを当てる
+    <t>三目並べゲーム
+人間プレイヤーで対戦できる
+結果と履歴が表示される</t>
+    <rPh sb="0" eb="1">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>モク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タイセン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードあてゲーム
+人間プレイヤー二人で対戦ができる
+勝敗と結果が表示される</t>
+    <rPh sb="9" eb="11">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フタリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイセン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウハイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードあてゲーム
+人間プレイヤーがカードを当てる
 結果が表示される</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="9" eb="11">
       <t>ニンゲン</t>
     </rPh>
-    <rPh sb="12" eb="13">
+    <rPh sb="21" eb="22">
       <t>ア</t>
     </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="25" eb="27">
       <t>ケッカ</t>
     </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>人間プレイヤー二人で対戦ができる
-勝敗と結果が表示される</t>
-    <rPh sb="0" eb="2">
-      <t>ニンゲン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>フタリ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイセン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ショウハイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
+    <rPh sb="28" eb="30">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1481,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1601,10 +1631,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>33</v>
@@ -1905,12 +1935,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2098,15 +2125,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2130,17 +2168,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/00_management/チーム06_反復計画書.xlsx
+++ b/00_management/チーム06_反復計画書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01E38EFC-184A-415E-984C-2DE5AF92AB10}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DF604F-FF11-4557-9C2B-C757E07ABFCC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,6 @@
     <sheet name="サンプル" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="114210"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -596,73 +595,73 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>三目並べゲーム
+    <t>&lt;カードあてゲーム&gt;
+人間プレイヤーがカードを当てる
+結果が表示される</t>
+    <rPh sb="11" eb="13">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;カードあてゲーム&gt;
+人間プレイヤー二人で対戦ができる
+勝敗と結果が表示される</t>
+    <rPh sb="11" eb="13">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フタリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイセン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショウハイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;三目並べゲーム&gt;
 人間プレイヤーで対戦できる
 結果と履歴が表示される</t>
-    <rPh sb="0" eb="1">
+    <rPh sb="1" eb="2">
       <t>サン</t>
     </rPh>
-    <rPh sb="1" eb="2">
+    <rPh sb="2" eb="3">
       <t>モク</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="3" eb="4">
       <t>ナラ</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="10" eb="12">
       <t>ニンゲン</t>
     </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="18" eb="20">
       <t>タイセン</t>
     </rPh>
-    <rPh sb="22" eb="24">
+    <rPh sb="24" eb="26">
       <t>ケッカ</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="27" eb="29">
       <t>リレキ</t>
     </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カードあてゲーム
-人間プレイヤー二人で対戦ができる
-勝敗と結果が表示される</t>
-    <rPh sb="9" eb="11">
-      <t>ニンゲン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>フタリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>タイセン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ショウハイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カードあてゲーム
-人間プレイヤーがカードを当てる
-結果が表示される</t>
-    <rPh sb="9" eb="11">
-      <t>ニンゲン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
+    <rPh sb="30" eb="32">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1511,7 +1510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1631,10 +1630,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>34</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>33</v>
@@ -1941,6 +1940,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2124,15 +2132,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
@@ -2150,6 +2149,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B012C18E-E858-451E-A312-9DCEB440203B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2165,12 +2172,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00_management/チーム06_反復計画書.xlsx
+++ b/00_management/チーム06_反復計画書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DF604F-FF11-4557-9C2B-C757E07ABFCC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21C7E64-49BD-408B-8F1F-BACD3311598E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1510,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1670,7 +1670,9 @@
       <c r="B13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="32">
+        <v>43984</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
     </row>
@@ -1934,18 +1936,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2133,6 +2135,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2144,14 +2154,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
